--- a/biology/Biochimie/ADP-ribosyle_cyclase/ADP-ribosyle_cyclase.xlsx
+++ b/biology/Biochimie/ADP-ribosyle_cyclase/ADP-ribosyle_cyclase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ADP-ribosyle cyclase, souvent écrite ADP-ribosyl cyclase par anglicisme, est une enzyme qui joue le rôle de catalyseur dans plusieurs réactions.
 </t>
@@ -511,9 +523,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADP-ribosyle cyclase est connue sous une multitude de noms d'usage, souvent ambigus et parfois trompeurs, notamment NAD+ nucléosidase, NADase (ambigu), NAD hydrolase (ambigu), NAD glycohydrolase (trompeur), CD38[2],[3],[4],[5],[6] (nom d'un gène), ou encore BST1[1] (nom d'un gène). Elle ne doit cependant pas être confondue avec la NAD+ glycohydrolase stricto sensu, qui correspond à l'activité enzymatique EC 3.2.2.5, globalement semblable mais néanmoins distincte de celle de l'ADP-ribosyle cyclase par le fait qu'elle ne forme pas d'ADP-ribose cyclique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADP-ribosyle cyclase est connue sous une multitude de noms d'usage, souvent ambigus et parfois trompeurs, notamment NAD+ nucléosidase, NADase (ambigu), NAD hydrolase (ambigu), NAD glycohydrolase (trompeur), CD38 (nom d'un gène), ou encore BST1 (nom d'un gène). Elle ne doit cependant pas être confondue avec la NAD+ glycohydrolase stricto sensu, qui correspond à l'activité enzymatique EC 3.2.2.5, globalement semblable mais néanmoins distincte de celle de l'ADP-ribosyle cyclase par le fait qu'elle ne forme pas d'ADP-ribose cyclique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette enzyme catalyse à la fois la formation et l'hydrolyse de l'ADP-ribose cyclique, dans les réactions: 
 NAD+  
